--- a/data/hotels_by_city/Houston/Houston_shard_640.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_640.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d241654-Reviews-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-Pasadena.h856198.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,936 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r552349770-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>241654</t>
+  </si>
+  <si>
+    <t>552349770</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r552347264-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>552347264</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I...</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r537768861-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>537768861</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>dan p, Owner at Super 8 by Wyndham Pasadena, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r503200052-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>503200052</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Our Stay</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times. People are very nice, could be a little cleaner but for the most part not to bad. we will stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>dan p, General Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here a few times. People are very nice, could be a little cleaner but for the most part not to bad. we will stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r497252667-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>497252667</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r489656131-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>489656131</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Restful stay</t>
+  </si>
+  <si>
+    <t>Staying for work at Strawberry Festival, disappointed at rate increase for same, will try elsewhere next yearMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Staying for work at Strawberry Festival, disappointed at rate increase for same, will try elsewhere next yearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r481077925-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>481077925</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r480395264-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>480395264</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Save your money Go elsewhere!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is horrible. The whole place smells horrible. Everything is gross. DO NOT STAY HERE!!!! There are roaches in the rooms. The toilet wouldn't flush. The shower curtain was broken. Not clean at all. The picture online are a lie the rooms do not look like that. The pool was nasty. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r479799511-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>479799511</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Nice option in Pasadena</t>
+  </si>
+  <si>
+    <t>Clean, quiet and comfortable. Easy check-in and friendly staff. Modern rooms and nice beds. Great value for money, would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet and comfortable. Easy check-in and friendly staff. Modern rooms and nice beds. Great value for money, would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r473185145-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>473185145</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Never Would I Recommend Someone To Stay Here</t>
+  </si>
+  <si>
+    <t>It's Super Ghetto Here I Would Never Recommed Someone To Spend Around The Amount I Did For 2 Nights If I Knew What I Was Getting Myself Into. I Placed My Reservation Online &amp; From The Pictures Online It Seemed Nice. When You First Walk Into The Hotel Their Is People Just Standing Around The Front Door Smoking. It Smelled Like Mold &amp; The Person At The Front Desk Was Very Rude. Secondly When You Walk Into The Room It Was HOT There Was Stains On The Towels &amp; It Smelt Burnt On The Bed Sheets . MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>It's Super Ghetto Here I Would Never Recommed Someone To Spend Around The Amount I Did For 2 Nights If I Knew What I Was Getting Myself Into. I Placed My Reservation Online &amp; From The Pictures Online It Seemed Nice. When You First Walk Into The Hotel Their Is People Just Standing Around The Front Door Smoking. It Smelled Like Mold &amp; The Person At The Front Desk Was Very Rude. Secondly When You Walk Into The Room It Was HOT There Was Stains On The Towels &amp; It Smelt Burnt On The Bed Sheets . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r464782458-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>464782458</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r462279158-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>462279158</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Very noise locations, the room had a smell that was almost...</t>
+  </si>
+  <si>
+    <t>Very noise locations, the room had a smell that was almost unpleasant.  The pillows were too soft. The breakfast was bleak not much of a selection. . MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Very noise locations, the room had a smell that was almost unpleasant.  The pillows were too soft. The breakfast was bleak not much of a selection. . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r453252431-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>453252431</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>A bit below par</t>
+  </si>
+  <si>
+    <t>Location wasnt too bad and it was a quiet area, not far from a shopping centre.  Plenty of car parking.  Reception staff were not the most pleasant.  Had a slight problem communicating with them.  Rooms were large enough and comfortable but a bit run down.  Breakfast was limited, but we made the most of it.  it is possible to have breakfast but the limited selection (I do mean limited) tended to spoil what could have been a big draw card for the ownersMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Location wasnt too bad and it was a quiet area, not far from a shopping centre.  Plenty of car parking.  Reception staff were not the most pleasant.  Had a slight problem communicating with them.  Rooms were large enough and comfortable but a bit run down.  Breakfast was limited, but we made the most of it.  it is possible to have breakfast but the limited selection (I do mean limited) tended to spoil what could have been a big draw card for the ownersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r439649680-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>439649680</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r434590219-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>434590219</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r412329327-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>412329327</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Quality of food - upkeep</t>
+  </si>
+  <si>
+    <t>Coffee in lobby was old and cold, AM &amp; PM.Lack of concern for upkeep:  toilet was not attached to floor, very wobbley. Towel holders + other bathroom fixtures falling off walls......where is their maintenance man? Reported loose toilet to desk clerk......MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Coffee in lobby was old and cold, AM &amp; PM.Lack of concern for upkeep:  toilet was not attached to floor, very wobbley. Towel holders + other bathroom fixtures falling off walls......where is their maintenance man? Reported loose toilet to desk clerk......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r409247644-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>409247644</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r399219142-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>399219142</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r378661796-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>378661796</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r374586877-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>374586877</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>The check in was very quick and the attendant was very nice. The reason I rated an average score  is the room was very musty smelling.The bed side table edging was falling off and the AC did not work properly. The room was clean but I think the carpet has been there for many many years.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r349437528-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>349437528</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The counter person was not helpful and barely spoke English!   The room was a questionable at best and the bed was terriblt uncomfortable. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r325152512-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>325152512</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r319700419-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>319700419</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r308399407-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>308399407</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Very nice stay with low budget rate. Not a bad place in Pasadena do I enjoy my stay at super 8 and also the staff was very friendly and helpful.  and the breakfast was also average but can't complain with average rate stay ☕️☕️☕️☕️</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r290521878-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>290521878</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r285913184-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>285913184</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We got to the hotel around 4pm after visiting NASA space center. The kids were looking forward to swimming in the pool but the lady at the front desk said the pool was closed till 7pm. She never really gave us a clear reason. The best I could understand is just that the manager told her not to open it till 7. Other than that, the place was not horrible, just not very good. The room was clean enough, cleaner than the last super 8 we stayed in. The breakfast provided was typical. I think I would try somewhere else next time. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r273695948-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>273695948</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r262190255-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>262190255</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r261521074-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>261521074</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>matress were terrible</t>
+  </si>
+  <si>
+    <t>I stayed at the Pasadena location, the mattress was terrible. The mattress was lumpy and uneven I had the worse night sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r247490746-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>247490746</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>review of hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our stay was pleasant enough. The breakfast area is pretty small. It was noisy in the morning due to construction across the street. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r240306707-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>240306707</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r239496081-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>239496081</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Consistently good place to stay.</t>
+  </si>
+  <si>
+    <t>My family visits this area 1-2 times a year and for the past two years we have been staying at this hotel. I really have yet to have a complaint. Easy check-in / out , clean rooms , good service , friendly staff. The free breakfast is very simple - but it is FREE. We will definitely continue to stay here on our Pasadena visits.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r238013794-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>238013794</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r214560230-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>214560230</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r214373444-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>214373444</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r213359588-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>213359588</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r204728872-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>204728872</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r202291171-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>202291171</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Another Good Stay</t>
+  </si>
+  <si>
+    <t>This was my second extended stay at this property in the past year. I visit family in the area at least once a year and I think this will be where I stay every time. The staff is friendly , the rooms have been clean , and the amenities are not over the top but sufficient. For the price I think this is by far the best deal in the Pasadena area.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r199579761-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>199579761</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r192319139-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>192319139</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r192034957-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>192034957</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Refused to honor Internet pricing.</t>
+  </si>
+  <si>
+    <t>I went with my aunt to book her a room. She went in and asked the prices for a room as i searched tripadvisor. I found a king sized bed smoking/nonsmoking rooms for $59 per night. The desk clerk told my aunt it was $69 a night. I told him I have it right her for 10 bucks cheaper. He told me they no longer have that room. I asked the gentleman what the room was? He told me it was a queen room... However the room (as stated above) is for a king. When I continued to push the tripadvisor price the clerk ignored me. I asked him if they didn't have the room for  $59 what happens if I booked the room on my phone right now. He ignored me. My aunt not wanting to cause a fuss just paid the extra  $10. So as you could imagine I was pretty annoyed. He handed her, her door key and we started walking to her room. Well as we stuck the key into the key slot it wouldn't open. So I look at the key number and it was to another room!!! I couldn't believe it!  What if that key card was to an occupied room? !! It was an overall rude, unprofessional, disrespectful experience and she hasn't even stayed the night yet!  I will personally never stay at a super 8 as will I never recommend it to...I went with my aunt to book her a room. She went in and asked the prices for a room as i searched tripadvisor. I found a king sized bed smoking/nonsmoking rooms for $59 per night. The desk clerk told my aunt it was $69 a night. I told him I have it right her for 10 bucks cheaper. He told me they no longer have that room. I asked the gentleman what the room was? He told me it was a queen room... However the room (as stated above) is for a king. When I continued to push the tripadvisor price the clerk ignored me. I asked him if they didn't have the room for  $59 what happens if I booked the room on my phone right now. He ignored me. My aunt not wanting to cause a fuss just paid the extra  $10. So as you could imagine I was pretty annoyed. He handed her, her door key and we started walking to her room. Well as we stuck the key into the key slot it wouldn't open. So I look at the key number and it was to another room!!! I couldn't believe it!  What if that key card was to an occupied room? !! It was an overall rude, unprofessional, disrespectful experience and she hasn't even stayed the night yet!  I will personally never stay at a super 8 as will I never recommend it to any friends or family. MoreShow less</t>
+  </si>
+  <si>
+    <t>I went with my aunt to book her a room. She went in and asked the prices for a room as i searched tripadvisor. I found a king sized bed smoking/nonsmoking rooms for $59 per night. The desk clerk told my aunt it was $69 a night. I told him I have it right her for 10 bucks cheaper. He told me they no longer have that room. I asked the gentleman what the room was? He told me it was a queen room... However the room (as stated above) is for a king. When I continued to push the tripadvisor price the clerk ignored me. I asked him if they didn't have the room for  $59 what happens if I booked the room on my phone right now. He ignored me. My aunt not wanting to cause a fuss just paid the extra  $10. So as you could imagine I was pretty annoyed. He handed her, her door key and we started walking to her room. Well as we stuck the key into the key slot it wouldn't open. So I look at the key number and it was to another room!!! I couldn't believe it!  What if that key card was to an occupied room? !! It was an overall rude, unprofessional, disrespectful experience and she hasn't even stayed the night yet!  I will personally never stay at a super 8 as will I never recommend it to...I went with my aunt to book her a room. She went in and asked the prices for a room as i searched tripadvisor. I found a king sized bed smoking/nonsmoking rooms for $59 per night. The desk clerk told my aunt it was $69 a night. I told him I have it right her for 10 bucks cheaper. He told me they no longer have that room. I asked the gentleman what the room was? He told me it was a queen room... However the room (as stated above) is for a king. When I continued to push the tripadvisor price the clerk ignored me. I asked him if they didn't have the room for  $59 what happens if I booked the room on my phone right now. He ignored me. My aunt not wanting to cause a fuss just paid the extra  $10. So as you could imagine I was pretty annoyed. He handed her, her door key and we started walking to her room. Well as we stuck the key into the key slot it wouldn't open. So I look at the key number and it was to another room!!! I couldn't believe it!  What if that key card was to an occupied room? !! It was an overall rude, unprofessional, disrespectful experience and she hasn't even stayed the night yet!  I will personally never stay at a super 8 as will I never recommend it to any friends or family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r191787892-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>191787892</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Not family friendly</t>
+  </si>
+  <si>
+    <t>The PROs room had fridge &amp; microwave, small table &amp; 2 chairsThe CONS:The only way to get to this hotel is a toll road, the beds were uncomfortable, the AC stopped working in the middle of the night I woke up sweating, the blanket had burn holes. Toilet seat had weird stain, only two sets of bath towels. Rude clerk at the front desk.I booked on Hotwire(blind booking) for 2 adults and 1 child. I was given a room with one King size bed. I asked the clerk for two beds, he said I only booked for 2 people I showed him that I booked for 2 adults 1 child he said " that is still only two people all three of you fit on the King size." I said that was not ok, and he said " well just pay for the extra bed".  I could understand if the place was somewhat full but there were only 10 cars in the parking lot. I called Hotwire and they said to pay for the extra bed and they would reimburse me. This is a first and last for would never step foot in this ridiculous place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The PROs room had fridge &amp; microwave, small table &amp; 2 chairsThe CONS:The only way to get to this hotel is a toll road, the beds were uncomfortable, the AC stopped working in the middle of the night I woke up sweating, the blanket had burn holes. Toilet seat had weird stain, only two sets of bath towels. Rude clerk at the front desk.I booked on Hotwire(blind booking) for 2 adults and 1 child. I was given a room with one King size bed. I asked the clerk for two beds, he said I only booked for 2 people I showed him that I booked for 2 adults 1 child he said " that is still only two people all three of you fit on the King size." I said that was not ok, and he said " well just pay for the extra bed".  I could understand if the place was somewhat full but there were only 10 cars in the parking lot. I called Hotwire and they said to pay for the extra bed and they would reimburse me. This is a first and last for would never step foot in this ridiculous place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r168991527-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>168991527</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r168708951-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>168708951</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r167464533-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>167464533</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r156447352-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>156447352</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r154402503-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>154402503</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r152735834-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>152735834</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r150880485-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>150880485</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r149346714-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>149346714</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r148711395-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>148711395</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r145339202-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>145339202</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r143719852-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>143719852</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r142538009-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>142538009</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r135590666-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135590666</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Bad area!</t>
+  </si>
+  <si>
+    <t>The room/price was not bad as expected of 2 star motels but I would not go here again. My vehicle almost got broken into last week and the manager doesn't seem too concerned about it. They were "looking" at the surveillance but either they had crappy cameras or they weren't working at all. The lady wouldn't let me look. That is why I'm giving poor facility and service. If I would've seen the last review I would not have booked at this location. Turned out to be a costly hotel because of body repair.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r131618213-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>131618213</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>comfortable and clean stay</t>
+  </si>
+  <si>
+    <t>very clean room, comfortable bed, great value. front desk personal very polite and very help full. have stayed here before every time we come here they makes us fill like home. we never had any problems. breakfast  has 2 juice, 2 kind of bread, 2 cereal, waffle, danishes, muffins and milk. price was good for we got. free WI-fi, free local phone calls, free coffee,</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r128598424-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>128598424</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>Very clean room, comfortable bed, quiet setting, great value.  Front desk personel polite and courteous. Have stayed here at various times and have had no problems, so I decided to submit a review.  I will stay there again when I am in town in the near future.  Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r114584084-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>114584084</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night in June had been here previously and had a good experience. After spending.2 nights at a horrible hotel.in corpus. We were exhausted and stopped in to visit relatives had the best nights sleep!  Comfy large room clean and quiet and inexpensive just what we needed!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r64492275-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>64492275</t>
+  </si>
+  <si>
+    <t>05/18/2010</t>
+  </si>
+  <si>
+    <t>Plain but fine for just sleeping &amp; showering</t>
+  </si>
+  <si>
+    <t>Seemed like an older hotel.  Stayed here 2 weeks &amp; it was pretty quiet which was important since I was a day sleeper.  Their breakfast buffet was standard with waffles, Danish pastries, muffins, bread/toast, &amp; cereal.  Would have been nice to have fruit &amp; yogurt also to chose from.   I would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1468,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1500,3896 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>166</v>
+      </c>
+      <c r="X20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" t="s">
+        <v>237</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>195</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>252</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>266</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s">
+        <v>281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>270</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>286</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>286</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>290</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J46" t="s">
+        <v>292</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>286</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
+        <v>295</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>296</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s">
+        <v>299</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>296</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>303</v>
+      </c>
+      <c r="O49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>307</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J51" t="s">
+        <v>310</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>307</v>
+      </c>
+      <c r="O51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>311</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" t="s">
+        <v>313</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>314</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>315</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+      <c r="J53" t="s">
+        <v>317</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>322</v>
+      </c>
+      <c r="O54" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>324</v>
+      </c>
+      <c r="J55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>327</v>
+      </c>
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" t="s">
+        <v>330</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>331</v>
+      </c>
+      <c r="O56" t="s">
+        <v>176</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" t="s">
+        <v>334</v>
+      </c>
+      <c r="K57" t="s">
+        <v>335</v>
+      </c>
+      <c r="L57" t="s">
+        <v>336</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>337</v>
+      </c>
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>339</v>
+      </c>
+      <c r="J58" t="s">
+        <v>340</v>
+      </c>
+      <c r="K58" t="s">
+        <v>335</v>
+      </c>
+      <c r="L58" t="s">
+        <v>341</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>337</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>343</v>
+      </c>
+      <c r="J59" t="s">
+        <v>344</v>
+      </c>
+      <c r="K59" t="s">
+        <v>345</v>
+      </c>
+      <c r="L59" t="s">
+        <v>346</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>347</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>348</v>
+      </c>
+      <c r="J60" t="s">
+        <v>349</v>
+      </c>
+      <c r="K60" t="s">
+        <v>350</v>
+      </c>
+      <c r="L60" t="s">
+        <v>351</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>352</v>
+      </c>
+      <c r="O60" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_640.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_640.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,85 +147,187 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r588344726-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>241654</t>
+  </si>
+  <si>
+    <t>588344726</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>Nasty hotel. Don't waste your time at this motel. The whole place smells bad. From when you walk in to check in and you complete stay. The rooms smells. They wouldn't open the pool says it was raining it was not it was clear and hot outside. And if you drive a truck you don't have truck parking they say you do but they don't MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>dan p, General Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Nasty hotel. Don't waste your time at this motel. The whole place smells bad. From when you walk in to check in and you complete stay. The rooms smells. They wouldn't open the pool says it was raining it was not it was clear and hot outside. And if you drive a truck you don't have truck parking they say you do but they don't More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r568134840-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>568134840</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>Not worth $70 per night. Late checkin at 12:00 am went well, went upstairs to room the hallway reeks of cigarettes. The room was dated two lamps didn’t work, the bed was hard and the toilet didn’t flush. Only stayed a few hour before my flight. Wouldn’t stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Not worth $70 per night. Late checkin at 12:00 am went well, went upstairs to room the hallway reeks of cigarettes. The room was dated two lamps didn’t work, the bed was hard and the toilet didn’t flush. Only stayed a few hour before my flight. Wouldn’t stay again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r552349770-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>241654</t>
-  </si>
-  <si>
     <t>552349770</t>
   </si>
   <si>
     <t>01/07/2018</t>
   </si>
   <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 days 2 nights and the rooms were big, very nice shower with amazing water pressure, very quiet place to stay! And the beds were amazing slept like a king. And the tv channels were awesome, so many choices and a very nice size tv! I honeslty really loved this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 days 2 nights and the rooms were big, very nice shower with amazing water pressure, very quiet place to stay! And the beds were amazing slept like a king. And the tv channels were awesome, so many choices and a very nice size tv! I honeslty really loved this hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r552347264-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>552347264</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I...</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r537768861-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>537768861</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>dan p, Owner at Super 8 by Wyndham Pasadena, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r527939910-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>527939910</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
     <t>MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded January 9, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 9, 2018</t>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded November 3, 2017</t>
   </si>
   <si>
     <t>More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r552347264-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
-  </si>
-  <si>
-    <t>552347264</t>
-  </si>
-  <si>
-    <t>Checked in had to leave didn’t think about internet until I...</t>
-  </si>
-  <si>
-    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>Checked in had to leave didn’t think about internet until I got back late that night and realized no one told me anything on how to get on net so i had to run my tablet off phone to use it. Didn’t eat breakfast so don’t really know how it was More</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r537768861-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
-  </si>
-  <si>
-    <t>537768861</t>
-  </si>
-  <si>
-    <t>11/01/2017</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>dan p, Owner at Super 8 by Wyndham Pasadena, responded to this reviewResponded November 3, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 3, 2017</t>
-  </si>
-  <si>
-    <t>I found checkibgbin was great, it was late and I had no problems getting checked in. Over all the stay was as to be expected. More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r511051994-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>511051994</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>dan p, General Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r503200052-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
@@ -243,18 +345,6 @@
     <t>We have stayed here a few times. People are very nice, could be a little cleaner but for the most part not to bad. we will stay againMoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>dan p, General Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded August 21, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 21, 2017</t>
-  </si>
-  <si>
     <t>We have stayed here a few times. People are very nice, could be a little cleaner but for the most part not to bad. we will stay againMore</t>
   </si>
   <si>
@@ -288,9 +378,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded June 5, 2017</t>
   </si>
   <si>
@@ -300,6 +387,42 @@
     <t>Staying for work at Strawberry Festival, disappointed at rate increase for same, will try elsewhere next yearMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r486966714-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>486966714</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Where's the Charmin?</t>
+  </si>
+  <si>
+    <t>No one ever at front desk. No one will ever pickup the phone. No WIFI. No extra roll of toilet paper and very little on spindle roll. No hand soap, had to use shampoo. Called front desk several times just no answer... Went up to front desk to get toilet paper or WIFI info just no one ever there. Unless you are checking in then someones instantly there. MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>No one ever at front desk. No one will ever pickup the phone. No WIFI. No extra roll of toilet paper and very little on spindle roll. No hand soap, had to use shampoo. Called front desk several times just no answer... Went up to front desk to get toilet paper or WIFI info just no one ever there. Unless you are checking in then someones instantly there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r483160122-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>483160122</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r481077925-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -309,9 +432,6 @@
     <t>05/02/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r480395264-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -351,6 +471,45 @@
     <t>Clean, quiet and comfortable. Easy check-in and friendly staff. Modern rooms and nice beds. Great value for money, would definitely stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r479514236-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>479514236</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>If you leave food wrappings or similar garbage in the trash cans, there are roaches that come looking for it. In my room (Room 302) they came out from behind the dresser somewhere. Don't eat in the rooms. In fact, don't stay at this hotel, how about that. The rooms smell of cigarette smoke and the hallways smell moldy. There is no attendant at the desk overnight. All the doors are unlocked so anyone can come walking in and wander the building. I give credit to the cleaning staff as the bathrooms were really clean and beds were made. They can't help the roaches though. If you want the wi-fi password you have to go down to the lobby also, this should be on display in the rooms somewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>If you leave food wrappings or similar garbage in the trash cans, there are roaches that come looking for it. In my room (Room 302) they came out from behind the dresser somewhere. Don't eat in the rooms. In fact, don't stay at this hotel, how about that. The rooms smell of cigarette smoke and the hallways smell moldy. There is no attendant at the desk overnight. All the doors are unlocked so anyone can come walking in and wander the building. I give credit to the cleaning staff as the bathrooms were really clean and beds were made. They can't help the roaches though. If you want the wi-fi password you have to go down to the lobby also, this should be on display in the rooms somewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r478879348-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>478879348</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Never stay here!!!!</t>
+  </si>
+  <si>
+    <t>It was dirty and smelled really bad. The service was less than satisfactory. The breakfast didn't have anything hot except the waffles that you make yourself, no protein at all. The pictures are very deceptive. In a nutshell...It was terrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was dirty and smelled really bad. The service was less than satisfactory. The breakfast didn't have anything hot except the waffles that you make yourself, no protein at all. The pictures are very deceptive. In a nutshell...It was terrible!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r473185145-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -417,6 +576,57 @@
     <t>Very noise locations, the room had a smell that was almost unpleasant.  The pillows were too soft. The breakfast was bleak not much of a selection. . More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r458310064-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>458310064</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>The office personnel are friendly the room was very clear and everything worked the soap and shampoo is a nice luxury most places don't cater to the breakfast was wonderful waffles with name brand yogurt the coffee always fresh and coffee in the room excellent thank you super 8MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>The office personnel are friendly the room was very clear and everything worked the soap and shampoo is a nice luxury most places don't cater to the breakfast was wonderful waffles with name brand yogurt the coffee always fresh and coffee in the room excellent thank you super 8More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r456233475-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>456233475</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>WEEKEND GETAWAY</t>
+  </si>
+  <si>
+    <t>Very nice, not the Marriot but very nice and comfortable. Will stay again in the very near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Very nice, not the Marriot but very nice and comfortable. Will stay again in the very near future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r453252431-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -432,9 +642,6 @@
     <t>Location wasnt too bad and it was a quiet area, not far from a shopping centre.  Plenty of car parking.  Reception staff were not the most pleasant.  Had a slight problem communicating with them.  Rooms were large enough and comfortable but a bit run down.  Breakfast was limited, but we made the most of it.  it is possible to have breakfast but the limited selection (I do mean limited) tended to spoil what could have been a big draw card for the ownersMoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded January 20, 2017</t>
   </si>
   <si>
@@ -480,6 +687,45 @@
     <t>Responded November 7, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r428183888-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>428183888</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>dan p, Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r419236687-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>419236687</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Terrible Service</t>
+  </si>
+  <si>
+    <t>I had booked a room with two queen beds on hotels.com. It turned out the website messed up and booked me for a different date. When I told the woman at the counter this she was very passive about whether or not she cared and told us to contact hotels.com. In the meantime she said that she would hook us up with the same rate but by the time I got my receipt I realize she had charged $20 more.I then contacted hotels.com to see if I could get my refund only to have them tell me they would have to contact the hotel to approve it. They did approve it but the room was not worth the $100 a night I spent as things were old and run down and the staff was incredibly rude. The next morning the lady at the front desk, the same lady, kept asking us when we were going to check out even though it was not checkout time. needless to say you might want to skip this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>dan p, Front Office Manager at Super 8 by Wyndham Pasadena, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>I had booked a room with two queen beds on hotels.com. It turned out the website messed up and booked me for a different date. When I told the woman at the counter this she was very passive about whether or not she cared and told us to contact hotels.com. In the meantime she said that she would hook us up with the same rate but by the time I got my receipt I realize she had charged $20 more.I then contacted hotels.com to see if I could get my refund only to have them tell me they would have to contact the hotel to approve it. They did approve it but the room was not worth the $100 a night I spent as things were old and run down and the staff was incredibly rude. The next morning the lady at the front desk, the same lady, kept asking us when we were going to check out even though it was not checkout time. needless to say you might want to skip this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r412329327-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -534,6 +780,45 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r392604952-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>392604952</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Love that they have smoking rooms but they are out dated, the internet is slow and the rooms are not kept up. lock on door was broken all in all the stay was average, for the cost it is okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Love that they have smoking rooms but they are out dated, the internet is slow and the rooms are not kept up. lock on door was broken all in all the stay was average, for the cost it is okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r383754853-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>383754853</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>My Hotel Of Choice In The Pasadena Area</t>
+  </si>
+  <si>
+    <t>I stay here at least once a year while visiting family. The location is convenient to accessing the hot spots in Pasadena , but quiet and off the highway just enough. The staff is there to assist when needed. The rooms are pretty basic , but do come with a microwave and refrigerator. The free breakfast features Texas shaped waffles , muffins , juice , cereal , milk , and coffee. This will continue to be my Pasadena hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I stay here at least once a year while visiting family. The location is convenient to accessing the hot spots in Pasadena , but quiet and off the highway just enough. The staff is there to assist when needed. The rooms are pretty basic , but do come with a microwave and refrigerator. The free breakfast features Texas shaped waffles , muffins , juice , cereal , milk , and coffee. This will continue to be my Pasadena hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r378661796-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -546,9 +831,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r374586877-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -582,6 +864,42 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r333530881-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>333530881</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Terrible Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathroom looked like it was falling apart. Customer service was more interested in watching the football game than helping me out. The room smelled, they would not permit a late check out. Not a good experience. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r328453944-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>328453944</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>A big disappointment</t>
+  </si>
+  <si>
+    <t>Have stayed at other Super8s &amp; was very satisfied.  This one did not meet our expectations.  Front desk staff at checkin was very rude.  Roaches in bathroom, dirty tub, breakfast was below most motel breakfasts in quality.  Overall it was not a good experience.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r325152512-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -618,12 +936,39 @@
     <t>Nice stay</t>
   </si>
   <si>
-    <t>Very nice stay with low budget rate. Not a bad place in Pasadena do I enjoy my stay at super 8 and also the staff was very friendly and helpful.  and the breakfast was also average but can't complain with average rate stay ☕️☕️☕️☕️</t>
+    <t>Very nice stay with low budget rate. Not a bad place in Pasadena do I enjoy my stay at super 8 and also the staff was very friendly and helpful.  and the breakfast was also average but can't complain with average rate stay ️️️️</t>
   </si>
   <si>
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r292457191-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>292457191</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r292163272-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>292163272</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>when me and my family stayed at super 8 motel it was very...</t>
+  </si>
+  <si>
+    <t>when me and my family stayed at super 8 motel it was very clean,relaxing I had to use super 8 in 1 month I had to reserve 8 rooms in Houston and Pasadena we were in moment of stress and emergency my brother got sick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r290521878-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -633,9 +978,6 @@
     <t>07/19/2015</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r285913184-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -663,6 +1005,33 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r266935497-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>266935497</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>VERY HAPPY WITH MY STAY</t>
+  </si>
+  <si>
+    <t>"The room was very clean and the beds were also very clean and comfortable." for the price i can't complain, very clean property for being super 8, staff was very friendly and easy smile face not a bad hotel ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r265510828-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>265510828</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r262190255-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1077,27 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r241492533-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>241492533</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r241391342-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>241391342</t>
+  </si>
+  <si>
+    <t>Non-smoking vs smokin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was ok but they should have a non-smoking floor rather than non-smoking rooms only. I could smell the cigarette smoke in my room and when I walked out into the hall it was like overwhelming. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r240306707-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -744,6 +1134,33 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r218290194-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>218290194</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r216134309-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>216134309</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Just some minor complaints; coffee maker in room had no...</t>
+  </si>
+  <si>
+    <t>Just some minor complaints; coffee maker in room had no coffee pot and no continental breakfast was available at 9;45am? Rooms were clean and comfortable!.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r214560230-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1170,6 @@
     <t>07/09/2014</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r214373444-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1191,24 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r212898564-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>212898564</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r212253447-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>212253447</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r204728872-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -816,7 +1248,40 @@
     <t>04/01/2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r198923025-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>198923025</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible customer service and employees who are plainly rude. </t>
+  </si>
+  <si>
+    <t>We first arrived here at the hotel and we weren't pleasant with their cleaning job... Stains and brown stains are everywhere even in shower too. It wasn't vacuumed very well. The bed isn't new and it was horrible for us to sleep on. My man is a big guy and he didn't get any good sleep because it has broken springs. The windows was supposed to have screens but apparently not. The card isn't working everywhere you tried to get in. We already paid for our dog and the cleaning lady threatened me about paying pet. She even stalked me when I put things in the car to check out. She threatened me twice again about the pet and told me to go in the lobby. We're not very comfortable there and will never go back ever again. The cleaning ladies brought their kids to work too! My god, they're very loud and they woke us up because the walls and floors are too thin. I don't get why they brought their kids to work for two days in a row. They had the school bus to drop off their kids at the hotel. This is not a very professional ran workplace. If you have options, pick another hotel for your sake. MoreShow less</t>
+  </si>
+  <si>
+    <t>We first arrived here at the hotel and we weren't pleasant with their cleaning job... Stains and brown stains are everywhere even in shower too. It wasn't vacuumed very well. The bed isn't new and it was horrible for us to sleep on. My man is a big guy and he didn't get any good sleep because it has broken springs. The windows was supposed to have screens but apparently not. The card isn't working everywhere you tried to get in. We already paid for our dog and the cleaning lady threatened me about paying pet. She even stalked me when I put things in the car to check out. She threatened me twice again about the pet and told me to go in the lobby. We're not very comfortable there and will never go back ever again. The cleaning ladies brought their kids to work too! My god, they're very loud and they woke us up because the walls and floors are too thin. I don't get why they brought their kids to work for two days in a row. They had the school bus to drop off their kids at the hotel. This is not a very professional ran workplace. If you have options, pick another hotel for your sake. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r192472837-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>192472837</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Need to be cleaned</t>
+  </si>
+  <si>
+    <t>Nice hotel but the carpet in our room was filthy.  You could tell it had not been cleaned.  I opened the curtains and the whole thing fell down.  It was just hooked up there with old hooks. Everything else was nice.  Staff was nice</t>
+  </si>
+  <si>
+    <t>January 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r192319139-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
@@ -828,9 +1293,6 @@
     <t>01/27/2014</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r192034957-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -867,6 +1329,30 @@
     <t>The PROs room had fridge &amp; microwave, small table &amp; 2 chairsThe CONS:The only way to get to this hotel is a toll road, the beds were uncomfortable, the AC stopped working in the middle of the night I woke up sweating, the blanket had burn holes. Toilet seat had weird stain, only two sets of bath towels. Rude clerk at the front desk.I booked on Hotwire(blind booking) for 2 adults and 1 child. I was given a room with one King size bed. I asked the clerk for two beds, he said I only booked for 2 people I showed him that I booked for 2 adults 1 child he said " that is still only two people all three of you fit on the King size." I said that was not ok, and he said " well just pay for the extra bed".  I could understand if the place was somewhat full but there were only 10 cars in the parking lot. I called Hotwire and they said to pay for the extra bed and they would reimburse me. This is a first and last for would never step foot in this ridiculous place again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r177468971-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>177468971</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r176683214-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>176683214</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r168991527-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1383,27 @@
     <t>07/13/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r166320690-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>166320690</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r162787036-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>162787036</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r156447352-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -930,18 +1437,33 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r151491473-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>151491473</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r150895377-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>150895377</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r150880485-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
     <t>150880485</t>
   </si>
   <si>
-    <t>01/28/2013</t>
-  </si>
-  <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r149346714-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1485,42 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r145487420-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>145487420</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Cruise Trip</t>
+  </si>
+  <si>
+    <t>One of the cleanest and nicest Super 8 motel I've stayed. Staff was very friendly and helpful. The continental breakfast was much to be desired.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r145417355-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>145417355</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Good for couples, not for families</t>
+  </si>
+  <si>
+    <t>I had made reservations online for two rooms to accomadate a family with ten people a week in advance. The rooms only had two bath towels, two hand towels and three washclothes. I went to the desk to get more towels and the night clerk asked how many were in each room. When I told him there were five in each room, he had a fit. I told him my reservation were for five in each room and had the reservation print out for proof. He said his computer only showed four for each room. Either way you go, the rooms were still only prepared to have two guess each and these were double queen rooms. There wasn't an exercise room or a business room here. Breakfast did not have the same varitey as other motels nearby. Construction on the main driveway made it hard to enter the property. One good thing about this place is its location to the shops, resturants and the freeway on/off ramps. I would rather go back to the Days Inn in this town if I had to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had made reservations online for two rooms to accomadate a family with ten people a week in advance. The rooms only had two bath towels, two hand towels and three washclothes. I went to the desk to get more towels and the night clerk asked how many were in each room. When I told him there were five in each room, he had a fit. I told him my reservation were for five in each room and had the reservation print out for proof. He said his computer only showed four for each room. Either way you go, the rooms were still only prepared to have two guess each and these were double queen rooms. There wasn't an exercise room or a business room here. Breakfast did not have the same varitey as other motels nearby. Construction on the main driveway made it hard to enter the property. One good thing about this place is its location to the shops, resturants and the freeway on/off ramps. I would rather go back to the Days Inn in this town if I had to come back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r145339202-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -972,9 +1530,6 @@
     <t>11/13/2012</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r143719852-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1551,45 @@
     <t>10/11/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r141287937-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>141287937</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>clean road motel, nothing more</t>
+  </si>
+  <si>
+    <t>Stayed there on a business purpose couple of days. Rooms are clean but hardware is poor. Air conditioning is too noisy. Breakfast was poor, just serials and waffles. Be careful while making wafles, the owner might be hard on you :)</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r135840516-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135840516</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Great Family Hotel for the Price</t>
+  </si>
+  <si>
+    <t>On a family road trip, we stayed at many hotels. This Super 8 was clean, new-looking and very comfortable. They offer a pool for cooling off which is concealed behind manicured greenery. The breakfast is complimentary (continental) but they offer hot waffles in the shape of good ol' Texas. Unlike most other hotels, they offer a 24 hr. coffee bar which is self-serve and it includes hot chocolate for the little ones. Just press a button and it's done! The rooms were clean, nicely painted and bathrooms were simple but clean. A/C units were newer and worked wonderfully under the hot summer temperatures. Again, for the price, this was a great hotel where family can stay together (we had three kids with two adults and a rollaway bed did the trick).  The kids loved the pool and the self-serve hot drink bar). I would recommend this to anyone. It was quiet, clean and affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>On a family road trip, we stayed at many hotels. This Super 8 was clean, new-looking and very comfortable. They offer a pool for cooling off which is concealed behind manicured greenery. The breakfast is complimentary (continental) but they offer hot waffles in the shape of good ol' Texas. Unlike most other hotels, they offer a 24 hr. coffee bar which is self-serve and it includes hot chocolate for the little ones. Just press a button and it's done! The rooms were clean, nicely painted and bathrooms were simple but clean. A/C units were newer and worked wonderfully under the hot summer temperatures. Again, for the price, this was a great hotel where family can stay together (we had three kids with two adults and a rollaway bed did the trick).  The kids loved the pool and the self-serve hot drink bar). I would recommend this to anyone. It was quiet, clean and affordable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r135590666-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1605,6 @@
     <t>The room/price was not bad as expected of 2 star motels but I would not go here again. My vehicle almost got broken into last week and the manager doesn't seem too concerned about it. They were "looking" at the surveillance but either they had crappy cameras or they weren't working at all. The lady wouldn't let me look. That is why I'm giving poor facility and service. If I would've seen the last review I would not have booked at this location. Turned out to be a costly hotel because of body repair.</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r131618213-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1633,45 @@
   </si>
   <si>
     <t>Very clean room, comfortable bed, quiet setting, great value.  Front desk personel polite and courteous. Have stayed here at various times and have had no problems, so I decided to submit a review.  I will stay there again when I am in town in the near future.  Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r124177122-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>124177122</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed two nights.  I made a reservation online and requested a flrst floor has the wife has a difficult time climbing steps.  The manager on site put us in a handicapped first floor room even though a handicapped room was not needed.  Room was very clean.  Sofa wasn't overly comfortable but used one of the extra pillows which really helped.  Breakfast included either a wrapped burrito or a sausage bun, waffles, cereal, muffins, bagels, fruit, coffee and juices.  Price was very reasonable.  We toured the space center which was one mile down the road making it very convient.  For warmer days they do have a pool.  Even though only a service road separated us from the main three lane road it was not noisy.  Felt very secure in this nice location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Stayed two nights.  I made a reservation online and requested a flrst floor has the wife has a difficult time climbing steps.  The manager on site put us in a handicapped first floor room even though a handicapped room was not needed.  Room was very clean.  Sofa wasn't overly comfortable but used one of the extra pillows which really helped.  Breakfast included either a wrapped burrito or a sausage bun, waffles, cereal, muffins, bagels, fruit, coffee and juices.  Price was very reasonable.  We toured the space center which was one mile down the road making it very convient.  For warmer days they do have a pool.  Even though only a service road separated us from the main three lane road it was not noisy.  Felt very secure in this nice location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r116865280-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>116865280</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Breakfast blows!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night and moved right across the street to the La Quinta this morning before check out. Rooms kind of dated and felt a little damp, which was weird. There was orange stained grout surrounding the toilet and smelled gross in there..i suspect it might have been vomit not cleaned out of the grout. Yuck! The continental breakfast though, was soooo dissapointing! Cereal,juice, a couple muffins (definitely packaged) and plain old bread slices that were so many days old that they felt toasted before they actually were. I would say this would be good for a cheap old motel stay, but I paid $88 for the military rate! Thanks for the discount! Ha!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night and moved right across the street to the La Quinta this morning before check out. Rooms kind of dated and felt a little damp, which was weird. There was orange stained grout surrounding the toilet and smelled gross in there..i suspect it might have been vomit not cleaned out of the grout. Yuck! The continental breakfast though, was soooo dissapointing! Cereal,juice, a couple muffins (definitely packaged) and plain old bread slices that were so many days old that they felt toasted before they actually were. I would say this would be good for a cheap old motel stay, but I paid $88 for the military rate! Thanks for the discount! Ha!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d241654-r114584084-Super_8_by_Wyndham_Pasadena-Pasadena_Texas.html</t>
@@ -1602,46 +2232,48 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s"/>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1657,7 +2289,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1666,53 +2298,53 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1728,7 +2360,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1737,53 +2369,53 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1799,7 +2431,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1808,25 +2440,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1848,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1870,7 +2502,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1879,35 +2511,37 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1917,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1939,7 +2573,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1948,37 +2582,35 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1988,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +2642,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2019,23 +2651,23 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2051,19 +2683,19 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2079,7 +2711,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2088,39 +2720,53 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>101</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>102</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2136,7 +2782,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2145,53 +2791,51 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -2207,7 +2851,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2216,53 +2860,53 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2278,60 +2922,62 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2347,7 +2993,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2356,37 +3002,35 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" t="s">
-        <v>128</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2396,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -2418,7 +3062,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2427,33 +3071,35 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2463,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -2485,60 +3131,48 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>146</v>
-      </c>
-      <c r="X15" t="s">
-        <v>147</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2554,7 +3188,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2563,23 +3197,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2588,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2601,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y16" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2623,40 +3259,40 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>155</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
         <v>156</v>
       </c>
-      <c r="K17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" t="s">
-        <v>90</v>
-      </c>
       <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>3</v>
@@ -2665,18 +3301,20 @@
         <v>2</v>
       </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -2692,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2701,51 +3339,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
       <c r="L18" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="Y18" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2761,60 +3401,62 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
         <v>168</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -2846,44 +3488,44 @@
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="X20" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -2899,7 +3541,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2908,16 +3550,16 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -2926,31 +3568,35 @@
         <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +3612,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2975,49 +3621,43 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -3033,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3042,44 +3682,54 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3094,7 +3744,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3103,44 +3753,50 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
       </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3155,7 +3811,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3164,39 +3820,51 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" t="s">
-        <v>199</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -3212,7 +3880,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3221,44 +3889,52 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3273,7 +3949,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3282,39 +3958,51 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" t="s">
-        <v>209</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -3330,7 +4018,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3339,47 +4027,39 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
       <c r="L28" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>214</v>
-      </c>
-      <c r="O28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>234</v>
+      </c>
       <c r="Y28" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -3395,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3404,44 +4084,52 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
       <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>218</v>
-      </c>
-      <c r="O29" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3456,7 +4144,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3465,47 +4153,51 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
-      </c>
-      <c r="K30" t="s">
-        <v>222</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O30" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
       <c r="R30" t="n">
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" t="s">
+        <v>249</v>
+      </c>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -3521,7 +4213,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3530,49 +4222,51 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
-      </c>
-      <c r="K31" t="s">
-        <v>227</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>248</v>
+      </c>
+      <c r="X31" t="s">
+        <v>249</v>
+      </c>
       <c r="Y31" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -3588,7 +4282,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3597,44 +4291,54 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
+      <c r="W32" t="s">
+        <v>248</v>
+      </c>
+      <c r="X32" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3649,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3658,31 +4362,31 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
@@ -3692,15 +4396,19 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s">
+        <v>249</v>
+      </c>
       <c r="Y33" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
@@ -3716,7 +4424,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3725,28 +4433,36 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>1</v>
@@ -3754,10 +4470,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>248</v>
+      </c>
+      <c r="X34" t="s">
+        <v>249</v>
+      </c>
       <c r="Y34" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -3773,7 +4493,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3782,44 +4502,50 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3834,7 +4560,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3843,44 +4569,50 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3895,7 +4627,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3904,44 +4636,50 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="J37" t="s">
-        <v>251</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3956,7 +4694,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3965,44 +4703,42 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>255</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s">
-        <v>176</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4017,7 +4753,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4026,50 +4762,44 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>259</v>
-      </c>
-      <c r="K39" t="s">
-        <v>260</v>
-      </c>
-      <c r="L39" t="s">
-        <v>261</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>261</v>
-      </c>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4084,7 +4814,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4093,10 +4823,10 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4104,19 +4834,19 @@
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -4145,7 +4875,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4154,44 +4884,40 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>269</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>304</v>
+      </c>
+      <c r="K41" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" t="s">
+        <v>306</v>
+      </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
+      <c r="Y41" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4206,7 +4932,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4215,46 +4941,44 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="J42" t="s">
-        <v>273</v>
-      </c>
-      <c r="K42" t="s">
-        <v>274</v>
-      </c>
-      <c r="L42" t="s">
-        <v>275</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>311</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s">
-        <v>276</v>
-      </c>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4269,7 +4993,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4278,41 +5002,41 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4320,7 +5044,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
@@ -4336,7 +5060,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4345,21 +5069,21 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4368,14 +5092,14 @@
         <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4397,7 +5121,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4406,44 +5130,40 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4458,7 +5178,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4467,44 +5187,48 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+      <c r="L46" t="s">
+        <v>93</v>
+      </c>
       <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
         <v>2</v>
       </c>
-      <c r="N46" t="s">
-        <v>286</v>
-      </c>
-      <c r="O46" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
         <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="Y46" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4519,7 +5243,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4528,44 +5252,44 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J47" t="s">
-        <v>295</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>331</v>
+      </c>
+      <c r="K47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s">
+        <v>333</v>
+      </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4580,7 +5304,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4589,46 +5313,44 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s"/>
-      <c r="L48" t="s">
-        <v>49</v>
-      </c>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4643,7 +5365,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4652,37 +5374,37 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="J49" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4704,7 +5426,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4713,33 +5435,35 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>306</v>
-      </c>
-      <c r="K50" t="s"/>
-      <c r="L50" t="s"/>
+        <v>344</v>
+      </c>
+      <c r="K50" t="s">
+        <v>345</v>
+      </c>
+      <c r="L50" t="s">
+        <v>346</v>
+      </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -4750,7 +5474,9 @@
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
+      <c r="Y50" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4765,7 +5491,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4774,44 +5500,50 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J51" t="s">
-        <v>310</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="Y51" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4826,7 +5558,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4835,48 +5567,44 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J52" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s"/>
-      <c r="L52" t="s">
-        <v>49</v>
-      </c>
+      <c r="L52" t="s"/>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s">
-        <v>54</v>
-      </c>
+      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4891,7 +5619,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -4900,24 +5628,28 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>317</v>
-      </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+        <v>355</v>
+      </c>
+      <c r="K53" t="s">
+        <v>358</v>
+      </c>
+      <c r="L53" t="s">
+        <v>359</v>
+      </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
         <v>4</v>
@@ -4926,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -4937,7 +5669,9 @@
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="Y53" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4952,7 +5686,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -4961,37 +5695,37 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="O54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5013,7 +5747,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5022,33 +5756,37 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="J55" t="s">
-        <v>325</v>
-      </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+        <v>365</v>
+      </c>
+      <c r="K55" t="s">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s">
+        <v>367</v>
+      </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5059,7 +5797,9 @@
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="Y55" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5074,7 +5814,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5083,41 +5823,31 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
-      </c>
-      <c r="K56" t="s">
-        <v>329</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O56" t="s">
-        <v>176</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
-      <c r="S56" t="n">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5125,7 +5855,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
@@ -5141,7 +5871,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5150,50 +5880,44 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="J57" t="s">
-        <v>334</v>
-      </c>
-      <c r="K57" t="s">
-        <v>335</v>
-      </c>
-      <c r="L57" t="s">
-        <v>336</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O57" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s">
-        <v>336</v>
-      </c>
+      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5208,7 +5932,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5217,41 +5941,41 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="K58" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="L58" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5259,7 +5983,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59">
@@ -5275,7 +5999,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5284,22 +6008,22 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="J59" t="s">
-        <v>344</v>
-      </c>
-      <c r="K59" t="s">
-        <v>345</v>
-      </c>
-      <c r="L59" t="s">
-        <v>346</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
+      <c r="N59" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59" t="s">
+        <v>95</v>
+      </c>
       <c r="P59" t="n">
         <v>5</v>
       </c>
@@ -5321,9 +6045,7 @@
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
-      <c r="Y59" t="s">
-        <v>346</v>
-      </c>
+      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5338,7 +6060,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5347,34 +6069,30 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="J60" t="s">
-        <v>349</v>
-      </c>
-      <c r="K60" t="s">
-        <v>350</v>
-      </c>
-      <c r="L60" t="s">
-        <v>351</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="O60" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
         <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
@@ -5388,8 +6106,2526 @@
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
-      <c r="Y60" t="s">
-        <v>351</v>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>388</v>
+      </c>
+      <c r="J61" t="s">
+        <v>389</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J62" t="s">
+        <v>393</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>390</v>
+      </c>
+      <c r="O62" t="s">
+        <v>334</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>390</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>398</v>
+      </c>
+      <c r="J64" t="s">
+        <v>399</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>400</v>
+      </c>
+      <c r="O64" t="s">
+        <v>156</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>401</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>402</v>
+      </c>
+      <c r="J65" t="s">
+        <v>403</v>
+      </c>
+      <c r="K65" t="s">
+        <v>404</v>
+      </c>
+      <c r="L65" t="s">
+        <v>405</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>406</v>
+      </c>
+      <c r="O65" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>407</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>408</v>
+      </c>
+      <c r="J66" t="s">
+        <v>409</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>400</v>
+      </c>
+      <c r="O66" t="s">
+        <v>334</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>410</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>411</v>
+      </c>
+      <c r="J67" t="s">
+        <v>412</v>
+      </c>
+      <c r="K67" t="s">
+        <v>413</v>
+      </c>
+      <c r="L67" t="s">
+        <v>414</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>400</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>416</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>417</v>
+      </c>
+      <c r="J68" t="s">
+        <v>418</v>
+      </c>
+      <c r="K68" t="s">
+        <v>419</v>
+      </c>
+      <c r="L68" t="s">
+        <v>420</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>421</v>
+      </c>
+      <c r="O68" t="s">
+        <v>334</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>422</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>423</v>
+      </c>
+      <c r="J69" t="s">
+        <v>424</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>421</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>426</v>
+      </c>
+      <c r="J70" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="s">
+        <v>428</v>
+      </c>
+      <c r="L70" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>432</v>
+      </c>
+      <c r="J71" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" t="s">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s">
+        <v>435</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>421</v>
+      </c>
+      <c r="O71" t="s">
+        <v>95</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>437</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>438</v>
+      </c>
+      <c r="J72" t="s">
+        <v>439</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>440</v>
+      </c>
+      <c r="O72" t="s">
+        <v>95</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>441</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>442</v>
+      </c>
+      <c r="J73" t="s">
+        <v>443</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>444</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>446</v>
+      </c>
+      <c r="J74" t="s">
+        <v>447</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>448</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>449</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>450</v>
+      </c>
+      <c r="J75" t="s">
+        <v>451</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>448</v>
+      </c>
+      <c r="O75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>452</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" t="s">
+        <v>95</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" t="s">
+        <v>457</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>448</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>458</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>459</v>
+      </c>
+      <c r="J78" t="s">
+        <v>460</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>461</v>
+      </c>
+      <c r="O78" t="s">
+        <v>95</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>462</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>463</v>
+      </c>
+      <c r="J79" t="s">
+        <v>464</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>465</v>
+      </c>
+      <c r="O79" t="s">
+        <v>95</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>466</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>467</v>
+      </c>
+      <c r="J80" t="s">
+        <v>468</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>93</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>465</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>470</v>
+      </c>
+      <c r="J81" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>472</v>
+      </c>
+      <c r="O81" t="s">
+        <v>95</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>473</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>474</v>
+      </c>
+      <c r="J82" t="s">
+        <v>475</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>472</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>476</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>477</v>
+      </c>
+      <c r="J83" t="s">
+        <v>478</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>479</v>
+      </c>
+      <c r="O83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>480</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>481</v>
+      </c>
+      <c r="J84" t="s">
+        <v>478</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>479</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>482</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>483</v>
+      </c>
+      <c r="J85" t="s">
+        <v>484</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>479</v>
+      </c>
+      <c r="O85" t="s">
+        <v>156</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>485</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>486</v>
+      </c>
+      <c r="J86" t="s">
+        <v>487</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>93</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>488</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>489</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>490</v>
+      </c>
+      <c r="J87" t="s">
+        <v>491</v>
+      </c>
+      <c r="K87" t="s">
+        <v>492</v>
+      </c>
+      <c r="L87" t="s">
+        <v>493</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>494</v>
+      </c>
+      <c r="O87" t="s">
+        <v>95</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>495</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>496</v>
+      </c>
+      <c r="J88" t="s">
+        <v>497</v>
+      </c>
+      <c r="K88" t="s">
+        <v>498</v>
+      </c>
+      <c r="L88" t="s">
+        <v>499</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>494</v>
+      </c>
+      <c r="O88" t="s">
+        <v>95</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>501</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>502</v>
+      </c>
+      <c r="J89" t="s">
+        <v>503</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>494</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>504</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>505</v>
+      </c>
+      <c r="J90" t="s">
+        <v>506</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>507</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>508</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>509</v>
+      </c>
+      <c r="J91" t="s">
+        <v>510</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>507</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>511</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>512</v>
+      </c>
+      <c r="J92" t="s">
+        <v>513</v>
+      </c>
+      <c r="K92" t="s">
+        <v>514</v>
+      </c>
+      <c r="L92" t="s">
+        <v>515</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>516</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>517</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>518</v>
+      </c>
+      <c r="J93" t="s">
+        <v>519</v>
+      </c>
+      <c r="K93" t="s">
+        <v>520</v>
+      </c>
+      <c r="L93" t="s">
+        <v>521</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>522</v>
+      </c>
+      <c r="O93" t="s">
+        <v>95</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>524</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>525</v>
+      </c>
+      <c r="J94" t="s">
+        <v>526</v>
+      </c>
+      <c r="K94" t="s">
+        <v>527</v>
+      </c>
+      <c r="L94" t="s">
+        <v>528</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>522</v>
+      </c>
+      <c r="O94" t="s">
+        <v>156</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>529</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>530</v>
+      </c>
+      <c r="J95" t="s">
+        <v>531</v>
+      </c>
+      <c r="K95" t="s">
+        <v>532</v>
+      </c>
+      <c r="L95" t="s">
+        <v>533</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>534</v>
+      </c>
+      <c r="O95" t="s">
+        <v>95</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>535</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>536</v>
+      </c>
+      <c r="J96" t="s">
+        <v>537</v>
+      </c>
+      <c r="K96" t="s">
+        <v>532</v>
+      </c>
+      <c r="L96" t="s">
+        <v>538</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>534</v>
+      </c>
+      <c r="O96" t="s">
+        <v>95</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>539</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>540</v>
+      </c>
+      <c r="J97" t="s">
+        <v>541</v>
+      </c>
+      <c r="K97" t="s">
+        <v>542</v>
+      </c>
+      <c r="L97" t="s">
+        <v>543</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>544</v>
+      </c>
+      <c r="O97" t="s">
+        <v>95</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>546</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>547</v>
+      </c>
+      <c r="J98" t="s">
+        <v>548</v>
+      </c>
+      <c r="K98" t="s">
+        <v>549</v>
+      </c>
+      <c r="L98" t="s">
+        <v>550</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>552</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>553</v>
+      </c>
+      <c r="J99" t="s">
+        <v>554</v>
+      </c>
+      <c r="K99" t="s">
+        <v>555</v>
+      </c>
+      <c r="L99" t="s">
+        <v>556</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39907</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>557</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>558</v>
+      </c>
+      <c r="J100" t="s">
+        <v>559</v>
+      </c>
+      <c r="K100" t="s">
+        <v>560</v>
+      </c>
+      <c r="L100" t="s">
+        <v>561</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>562</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
